--- a/plots.xlsx
+++ b/plots.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Recurssion Depth</t>
-  </si>
-  <si>
-    <t>FPS</t>
   </si>
   <si>
     <t>~Million Primary Rays/s</t>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPS </t>
   </si>
 </sst>
 </file>
@@ -92,6 +92,3566 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rendering FPS VS.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Recusion Depth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPS </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53E7-45B6-B423-25505861D6EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="573844032"/>
+        <c:axId val="573843048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="573844032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Recursion Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573843048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573843048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frames Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573844032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DispatchRays VS. Recursion Depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DispatchRays(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17B1-4658-8156-4511A255A939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="582264136"/>
+        <c:axId val="582267416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="582264136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Recursion Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582267416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="582267416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>DispatchRays (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582264136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t># Million Primary Rays/s VS.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Recursion Depth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>~Million Primary Rays/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$15:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$16:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F35-43A8-904A-CFBE5CADCAD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="620581736"/>
+        <c:axId val="620579112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="620581736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Recursion Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620579112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620579112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t># Million Primary Rays / s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620581736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381501" y="3048001"/>
+          <a:ext cx="1095374" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Higher</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> is better</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="6057901"/>
+          <a:ext cx="1047750" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Lower</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> is better</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438651" y="9039226"/>
+          <a:ext cx="1076324" cy="276224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Higher</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> is better</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +3917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F8:O11"/>
+  <dimension ref="C4:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,7 +3928,59 @@
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>14.8</v>
+      </c>
+      <c r="E5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G5">
+        <v>17.7</v>
+      </c>
+      <c r="H5">
+        <v>19.8</v>
+      </c>
+      <c r="I5">
+        <v>29.5</v>
+      </c>
+      <c r="J5">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>0</v>
       </c>
@@ -394,12 +4006,12 @@
         <v>25</v>
       </c>
       <c r="O8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>1</v>
       </c>
       <c r="G9">
         <v>67</v>
@@ -423,12 +4035,12 @@
         <v>21.2</v>
       </c>
       <c r="O9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>14.8</v>
@@ -452,12 +4064,12 @@
         <v>46.5</v>
       </c>
       <c r="O10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>63.3</v>
@@ -481,10 +4093,63 @@
         <v>20.2</v>
       </c>
       <c r="O11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
         <v>4</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>9</v>
+      </c>
+      <c r="U15">
+        <v>15</v>
+      </c>
+      <c r="V15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>63.3</v>
+      </c>
+      <c r="Q16">
+        <v>56.7</v>
+      </c>
+      <c r="R16">
+        <v>54</v>
+      </c>
+      <c r="S16">
+        <v>52</v>
+      </c>
+      <c r="T16">
+        <v>47.65</v>
+      </c>
+      <c r="U16">
+        <v>31.3</v>
+      </c>
+      <c r="V16">
+        <v>20.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>